--- a/ontology/SGV/dsp/Resources.xlsx
+++ b/ontology/SGV/dsp/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D8E99-FF7E-0848-BF6C-B3E604374909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195812D8-2FCC-0742-882C-4BD3E903954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="8" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="134">
   <si>
     <t>Cardinality</t>
   </si>
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>hasLongitude</t>
-  </si>
-  <si>
-    <t>isPartOfFilm</t>
   </si>
   <si>
     <t>hasEmployee</t>
@@ -853,7 +850,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,7 +899,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,7 +979,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,7 +999,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,7 +1019,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E5B32-99D6-DC41-A463-7F24C56DDF0B}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A25" sqref="A25:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1190,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1345,15 +1342,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -1361,7 +1358,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -1369,15 +1366,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -1385,7 +1382,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -1409,7 +1406,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1417,31 +1414,31 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
@@ -1465,17 +1462,9 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1523,7 +1512,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -2177,7 +2166,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -2459,7 +2448,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ontology/SGV/dsp/Resources.xlsx
+++ b/ontology/SGV/dsp/Resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienraemy/Documents/GitHub/pia-data-model/ontology/SGV/dsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195812D8-2FCC-0742-882C-4BD3E903954C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90716430-A402-CA49-A5CD-3293DEAFB853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="134">
   <si>
     <t>Cardinality</t>
   </si>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B41"/>
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1470,15 +1470,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD91F824-1F3E-7E48-A5CC-061BC01D3E73}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1660,6 +1661,14 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE4E426-8F65-E04A-9C4A-1F73D935C2CC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
